--- a/src/main/webapp/report/Export/LenhSanXuat/Template_LenhSanXuat.xlsx
+++ b/src/main/webapp/report/Export/LenhSanXuat/Template_LenhSanXuat.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMES_API_CORE\src\main\webapp\report\Export\LenhSanXuat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GMESApiCore\src\main\webapp\report\Export\LenhSanXuat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4522EF-8259-4C19-877A-387D5E517784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AE5F55-C9FC-47F6-BD99-309CD892D1AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DHA Co., Ltd.</t>
   </si>
@@ -45,19 +45,37 @@
     <t>Mã sản phẩm:</t>
   </si>
   <si>
+    <t>224G679</t>
+  </si>
+  <si>
     <t>Ngày giao:</t>
   </si>
   <si>
-    <t>Mã sản xuất:</t>
+    <t>09/01/2021</t>
+  </si>
+  <si>
+    <t>Ngày duyệt:</t>
+  </si>
+  <si>
+    <t>02/12/2020</t>
   </si>
   <si>
     <t>Khách hàng:</t>
   </si>
   <si>
+    <t>Zodiac</t>
+  </si>
+  <si>
     <t>Merchandiser:</t>
   </si>
   <si>
-    <t>Ngày duyệt:</t>
+    <t>Kế Hoạch BN1</t>
+  </si>
+  <si>
+    <t>Xưởng sản xuất:</t>
+  </si>
+  <si>
+    <t>BN1</t>
   </si>
   <si>
     <t>PO LINE</t>
@@ -69,13 +87,19 @@
     <t>SHIP MODE</t>
   </si>
   <si>
-    <t>XƯỞNG TỔ</t>
-  </si>
-  <si>
-    <t>Cảng đến</t>
-  </si>
-  <si>
-    <t>PT Đ.gói</t>
+    <t>TỔ</t>
+  </si>
+  <si>
+    <t>ĐÓNG GÓI</t>
+  </si>
+  <si>
+    <t>MÀU</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>SS</t>
   </si>
   <si>
     <t>TỔNG</t>
@@ -87,14 +111,14 @@
     <t>Cỡ TB</t>
   </si>
   <si>
-    <t>Màu</t>
+    <t>CẢNG ĐẾN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +174,10 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="TIMES NEW ROMAN"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -183,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -214,19 +242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -351,41 +366,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -394,7 +413,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -405,11 +424,14 @@
       <alignment horizontal="center" vertical="top"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -421,22 +443,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -445,7 +467,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -453,20 +475,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -475,7 +485,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,8 +512,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -835,171 +845,191 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="14" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="27" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="M3" s="21"/>
-      <c r="O3" s="22"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="23" t="s">
+      <c r="A4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="20"/>
+      <c r="E4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>4</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>5</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>6</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>7</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>8</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="4">
         <v>9</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="5">
         <v>10</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>16</v>
+      <c r="R5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
